--- a/TariffarioRegioneBasilicata.xlsx
+++ b/TariffarioRegioneBasilicata.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="dPIQO4xmKKIDakyQHHZ/N/uExDjdWqtzAmwg1T9qpxk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="FukAtxLtQs0UnhKusf2g840Y8eKx52oH26EVsX/v3FY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="1219">
   <si>
     <t>Ministeriale</t>
   </si>
@@ -3669,6 +3669,12 @@
   </si>
   <si>
     <t>COLESTEROLO LDL. Determinazione diretta</t>
+  </si>
+  <si>
+    <t>88.88.A</t>
+  </si>
+  <si>
+    <t>esame fittizio</t>
   </si>
 </sst>
 </file>
@@ -3740,7 +3746,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3785,6 +3791,18 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9859,6 +9877,21 @@
         <v>1.75</v>
       </c>
     </row>
+    <row r="345" ht="14.25" customHeight="1">
+      <c r="A345" s="15" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B345" s="16">
+        <v>1234567.0</v>
+      </c>
+      <c r="C345" s="17"/>
+      <c r="D345" s="16" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E345" s="18">
+        <v>100.0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$B$1:$E$341"/>
   <printOptions/>
